--- a/WebErp/Dcnp/Ajax/Import_template.xlsx
+++ b/WebErp/Dcnp/Ajax/Import_template.xlsx
@@ -41,23 +41,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>saf30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saf31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>saf30</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>01_cuscode</t>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>客戶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>代號</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,12 +100,76 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
+      <t>客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>代号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dsap030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>saf31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
       <t>客戶</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -94,6 +186,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -110,7 +203,7 @@
   </si>
   <si>
     <r>
-      <t>saf30</t>
+      <t>saf31</t>
     </r>
     <r>
       <rPr>
@@ -125,6 +218,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -141,6 +235,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -157,135 +252,32 @@
   </si>
   <si>
     <r>
-      <t>dsap030</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
+      <t>dsap31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>01</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>saf31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>01_cuscode</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>saf31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>客戶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>代號</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>saf31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>客户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>代号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dsap31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>01</t>
-    </r>
+    <t>test30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3001_cuscode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3101_cuscode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +629,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,42 +666,42 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
